--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_CaoAnhVuong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_CaoAnhVuong.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="77">
   <si>
     <t>STT</t>
   </si>
@@ -235,6 +235,36 @@
   </si>
   <si>
     <t>Sim</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16363</t>
+  </si>
+  <si>
+    <t>Không khởi động được thiết bị</t>
+  </si>
+  <si>
+    <t>Nạp lại FW</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,16565</t>
+  </si>
+  <si>
+    <t>W.2.00.---19.200416</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim, hết hạn dịch vụ</t>
   </si>
 </sst>
 </file>
@@ -952,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showZeros="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1180,16 +1210,30 @@
         <v>63</v>
       </c>
       <c r="H6" s="43"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="45"/>
+      <c r="I6" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="45" t="s">
+        <v>69</v>
+      </c>
       <c r="K6" s="48"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="47"/>
+      <c r="L6" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" s="3"/>
       <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="43"/>
+      <c r="P6" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="43" t="s">
+        <v>23</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="13"/>
       <c r="U6" s="69" t="s">
@@ -1219,16 +1263,30 @@
         <v>63</v>
       </c>
       <c r="H7" s="43"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="45"/>
+      <c r="I7" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>69</v>
+      </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
+      <c r="L7" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" s="45" t="s">
+        <v>70</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="43"/>
+      <c r="P7" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>23</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
       <c r="U7" s="70"/>
@@ -1613,7 +1671,7 @@
       </c>
       <c r="V20" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="16"/>
     </row>
@@ -1986,7 +2044,7 @@
       </c>
       <c r="V32" s="11">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W32" s="16"/>
     </row>
@@ -2146,7 +2204,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -2753,8 +2811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2983,17 +3041,33 @@
         <v>63</v>
       </c>
       <c r="H6" s="43"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="48"/>
+      <c r="I6" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>73</v>
+      </c>
       <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
+      <c r="M6" s="45" t="s">
+        <v>74</v>
+      </c>
       <c r="N6" s="47"/>
       <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="4"/>
+      <c r="P6" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="T6" s="49"/>
       <c r="U6" s="69" t="s">
         <v>18</v>
@@ -3440,7 +3514,7 @@
       </c>
       <c r="V21" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="16"/>
     </row>
@@ -3749,7 +3823,7 @@
       </c>
       <c r="V31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="16"/>
     </row>
@@ -3941,7 +4015,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="16"/>
     </row>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_CaoAnhVuong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_CaoAnhVuong.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="19" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="82">
   <si>
     <t>STT</t>
   </si>
@@ -258,13 +258,28 @@
     <t>W.2.00.---19.200416</t>
   </si>
   <si>
-    <t>Nâng cấp khay sim</t>
-  </si>
-  <si>
     <t>CS</t>
   </si>
   <si>
     <t>Thiết bị không nhận sim, hết hạn dịch vụ</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>LK,NCFW</t>
+  </si>
+  <si>
+    <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>20/01/2021</t>
   </si>
 </sst>
 </file>
@@ -637,6 +652,15 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -665,15 +689,6 @@
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -982,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1015,43 +1030,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1096,58 +1111,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="59" t="s">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="62" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="62" t="s">
+      <c r="N4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="59" t="s">
+      <c r="O4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="60" t="s">
+      <c r="P4" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="59" t="s">
+      <c r="Q4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="59" t="s">
+      <c r="R4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="59" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="59" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1172,23 +1187,23 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="68"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1198,7 +1213,9 @@
       <c r="B6" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="42" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" s="43" t="s">
         <v>44</v>
       </c>
@@ -1224,7 +1241,9 @@
         <v>70</v>
       </c>
       <c r="N6" s="3"/>
-      <c r="O6" s="45"/>
+      <c r="O6" s="45" t="s">
+        <v>80</v>
+      </c>
       <c r="P6" s="45" t="s">
         <v>71</v>
       </c>
@@ -1236,7 +1255,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="59" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1251,7 +1270,9 @@
       <c r="B7" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="42"/>
+      <c r="C7" s="42" t="s">
+        <v>81</v>
+      </c>
       <c r="D7" s="43" t="s">
         <v>44</v>
       </c>
@@ -1277,7 +1298,9 @@
         <v>70</v>
       </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="45"/>
+      <c r="O7" s="45" t="s">
+        <v>80</v>
+      </c>
       <c r="P7" s="45" t="s">
         <v>71</v>
       </c>
@@ -1289,7 +1312,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="60"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1318,7 +1341,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="60"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1347,7 +1370,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="60"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1376,7 +1399,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="60"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1405,7 +1428,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="60"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1434,7 +1457,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="59" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1465,7 +1488,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="60"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1494,7 +1517,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="60"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1523,7 +1546,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="60"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1552,7 +1575,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="61"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2783,11 +2806,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -2801,6 +2819,11 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2811,8 +2834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2844,43 +2867,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -2925,58 +2948,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="59" t="s">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="62" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="62" t="s">
+      <c r="N4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="59" t="s">
+      <c r="O4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="60" t="s">
+      <c r="P4" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="59" t="s">
+      <c r="Q4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="59" t="s">
+      <c r="R4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="59" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="59" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -3001,23 +3024,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="68"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3027,7 +3050,9 @@
       <c r="B6" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="42" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" s="43" t="s">
         <v>65</v>
       </c>
@@ -3045,31 +3070,35 @@
         <v>72</v>
       </c>
       <c r="J6" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K6" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="L6" s="45"/>
+      <c r="L6" s="45" t="s">
+        <v>79</v>
+      </c>
       <c r="M6" s="45" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N6" s="47"/>
-      <c r="O6" s="45"/>
+      <c r="O6" s="45" t="s">
+        <v>80</v>
+      </c>
       <c r="P6" s="45" t="s">
         <v>71</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="R6" s="43" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T6" s="49"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="59" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3100,7 +3129,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="60"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3129,7 +3158,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="60"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3158,7 +3187,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="60"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3187,7 +3216,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="60"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3216,7 +3245,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="60"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3245,7 +3274,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="59" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3276,7 +3305,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="60"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3305,7 +3334,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="60"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3334,7 +3363,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="60"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3363,7 +3392,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="61"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3514,7 +3543,7 @@
       </c>
       <c r="V21" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="16"/>
     </row>
@@ -3546,7 +3575,7 @@
       </c>
       <c r="V22" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="16"/>
     </row>
@@ -3951,7 +3980,7 @@
       </c>
       <c r="V35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="16"/>
     </row>
@@ -4015,7 +4044,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -4594,6 +4623,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4605,13 +4641,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4655,43 +4684,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -4736,58 +4765,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="59" t="s">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="62" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="62" t="s">
+      <c r="N4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="59" t="s">
+      <c r="O4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="60" t="s">
+      <c r="P4" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="59" t="s">
+      <c r="Q4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="59" t="s">
+      <c r="R4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="71" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="59" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="59" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -4812,23 +4841,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="68"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="71"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4854,7 +4883,7 @@
       <c r="R6" s="43"/>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="59" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4885,7 +4914,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="60"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4914,7 +4943,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="60"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4943,7 +4972,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="60"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -4972,7 +5001,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="60"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5001,7 +5030,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="60"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5030,7 +5059,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="59" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5061,7 +5090,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="60"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5090,7 +5119,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="60"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5119,7 +5148,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="60"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5148,7 +5177,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="61"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6379,6 +6408,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6390,13 +6426,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_CaoAnhVuong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_CaoAnhVuong.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang1\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang1\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="19" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="82">
   <si>
     <t>STT</t>
   </si>
@@ -652,6 +652,36 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -659,36 +689,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -997,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView showZeros="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1030,43 +1030,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1111,58 +1111,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="65" t="s">
+      <c r="L4" s="59"/>
+      <c r="M4" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="63" t="s">
+      <c r="P4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="62" t="s">
+      <c r="Q4" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="68" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="59" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1187,23 +1187,23 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="68"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="59" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="60"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1341,7 +1341,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="60"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1370,7 +1370,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="60"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1399,7 +1399,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="60"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1428,7 +1428,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="60"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1457,7 +1457,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="59" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1488,7 +1488,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="60"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1517,7 +1517,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="60"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1546,7 +1546,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="60"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1575,7 +1575,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="61"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2806,6 +2806,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -2819,11 +2824,6 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2834,8 +2834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showZeros="0" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2867,43 +2867,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -2948,58 +2948,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="65" t="s">
+      <c r="L4" s="59"/>
+      <c r="M4" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="63" t="s">
+      <c r="P4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="62" t="s">
+      <c r="Q4" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="68" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="59" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -3024,23 +3024,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="68"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3098,7 +3098,7 @@
         <v>74</v>
       </c>
       <c r="T6" s="49"/>
-      <c r="U6" s="59" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3129,7 +3129,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="60"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3158,7 +3158,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="4"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="60"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3187,7 +3187,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="60"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3216,7 +3216,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="60"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3245,7 +3245,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="60"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3274,7 +3274,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="59" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3305,7 +3305,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="60"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3334,7 +3334,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="60"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3363,7 +3363,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="60"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3392,7 +3392,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="61"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4623,13 +4623,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4641,6 +4634,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4651,8 +4651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4684,43 +4684,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
       <c r="W1" s="53"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="69"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="6"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -4765,58 +4765,58 @@
       <c r="W3" s="30"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="65" t="s">
+      <c r="L4" s="59"/>
+      <c r="M4" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="63" t="s">
+      <c r="P4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="62" t="s">
+      <c r="Q4" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="71" t="s">
+      <c r="S4" s="68" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="59" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -4841,49 +4841,75 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="71"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="68"/>
       <c r="T5" s="30"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
       <c r="W5" s="54"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="43"/>
+      <c r="B6" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="44">
+        <v>868183034674593</v>
+      </c>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43" t="s">
+        <v>63</v>
+      </c>
       <c r="H6" s="43"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="45"/>
+      <c r="I6" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="45" t="s">
+        <v>69</v>
+      </c>
       <c r="K6" s="48"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="43"/>
+      <c r="L6" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="43" t="s">
+        <v>23</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="59" t="s">
+      <c r="U6" s="69" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -4895,26 +4921,52 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="43"/>
+      <c r="B7" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="44">
+        <v>868183033802989</v>
+      </c>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43" t="s">
+        <v>63</v>
+      </c>
       <c r="H7" s="43"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="45"/>
+      <c r="I7" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>69</v>
+      </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
+      <c r="L7" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" s="45" t="s">
+        <v>70</v>
+      </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="43"/>
+      <c r="O7" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>23</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="60"/>
+      <c r="U7" s="70"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4924,26 +4976,58 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="43"/>
+      <c r="B8" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="44">
+        <v>868345035621572</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>63</v>
+      </c>
       <c r="H8" s="43"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="4"/>
+      <c r="I8" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="N8" s="47"/>
+      <c r="O8" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R8" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="T8" s="49"/>
-      <c r="U8" s="60"/>
+      <c r="U8" s="70"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4972,7 +5056,7 @@
       <c r="R9" s="43"/>
       <c r="S9" s="4"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="60"/>
+      <c r="U9" s="70"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -5001,7 +5085,7 @@
       <c r="R10" s="43"/>
       <c r="S10" s="4"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="60"/>
+      <c r="U10" s="70"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -5030,7 +5114,7 @@
       <c r="R11" s="43"/>
       <c r="S11" s="4"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="60"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -5059,7 +5143,7 @@
       <c r="R12" s="43"/>
       <c r="S12" s="4"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="59" t="s">
+      <c r="U12" s="69" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -5090,7 +5174,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="60"/>
+      <c r="U13" s="70"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -5119,7 +5203,7 @@
       <c r="R14" s="43"/>
       <c r="S14" s="4"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="60"/>
+      <c r="U14" s="70"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -5148,7 +5232,7 @@
       <c r="R15" s="43"/>
       <c r="S15" s="4"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="60"/>
+      <c r="U15" s="70"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5177,7 +5261,7 @@
       <c r="R16" s="43"/>
       <c r="S16" s="4"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="61"/>
+      <c r="U16" s="71"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -5296,7 +5380,7 @@
       </c>
       <c r="V20" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="16"/>
     </row>
@@ -5360,7 +5444,7 @@
       </c>
       <c r="V22" s="11">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="16"/>
     </row>
@@ -5637,7 +5721,7 @@
       </c>
       <c r="V31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="16"/>
     </row>
@@ -5669,7 +5753,7 @@
       </c>
       <c r="V32" s="11">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W32" s="16"/>
     </row>
@@ -5765,7 +5849,7 @@
       </c>
       <c r="V35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="16"/>
     </row>
@@ -5829,7 +5913,7 @@
       </c>
       <c r="V37" s="11">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W37" s="16"/>
     </row>
@@ -6408,13 +6492,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6426,6 +6503,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
